--- a/Input/Input.xlsx
+++ b/Input/Input.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://elogroup-my.sharepoint.com/personal/jordan_dias_elogroup_com_br/Documents/Área de Trabalho/Jordan/Cursos/Prova_Tecnica_Engenheiro_RPA/Input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JordanLucasDias\OneDrive - Elogroup\Área de Trabalho\Jordan\Cursos\Desafio_RoitBank_EngenheiroRPA\Input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{9E4DA8F1-07DC-4767-B0B8-2E0B7DAD9087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{44E0A669-A696-454B-9659-69D251F45085}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42CE02B2-F634-4D6F-B559-371F5163DAE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{6C34F415-D8AC-419C-A23E-7D9A40178E54}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Campo</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>SecoesIBGE</t>
-  </si>
-  <si>
-    <t>C:\Users\JordanLucasDias\AppData\Local\Programs\Python\Python38</t>
   </si>
   <si>
     <t>Path inicial do python para permitir execução do script ex: C:\Users\XXXXXXXXX\AppData\Local\Programs\Python\Python38</t>
@@ -457,7 +454,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -483,11 +480,8 @@
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -495,7 +489,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
